--- a/LoSua_Pollen.xlsx
+++ b/LoSua_Pollen.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Joe\University\University\PhD\Writeup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9055653-24D3-4E41-8227-D86D5421D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30D0E7-2ED7-473F-B423-C3CB52CFA1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{DD0C5C7F-320E-4908-9651-3C3451852EF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="2" activeTab="4" xr2:uid="{DD0C5C7F-320E-4908-9651-3C3451852EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
-    <sheet name="Frac_Fine" sheetId="1" r:id="rId3"/>
-    <sheet name="Frac_Coarse" sheetId="3" r:id="rId4"/>
+    <sheet name="&lt;53" sheetId="1" r:id="rId3"/>
+    <sheet name="&gt;53" sheetId="3" r:id="rId4"/>
     <sheet name="Cultivar 2xCoarse" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="158">
   <si>
     <t>Sample</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Euphorbia</t>
   </si>
   <si>
-    <t>Euphorbiaceae cf. Hura</t>
-  </si>
-  <si>
     <t>Fabaceae Undiff</t>
   </si>
   <si>
@@ -291,16 +288,10 @@
     <t>Ficus</t>
   </si>
   <si>
-    <t>Forsteronia</t>
-  </si>
-  <si>
     <t>Gomphrena</t>
   </si>
   <si>
     <t>Hebanthe</t>
-  </si>
-  <si>
-    <t>Hyeronima</t>
   </si>
   <si>
     <t>Machaerium</t>
@@ -378,9 +369,6 @@
     <t>Polypodiaceae</t>
   </si>
   <si>
-    <t>Onagraceae cf. Ludwigia</t>
-  </si>
-  <si>
     <t>Pteridaceae</t>
   </si>
   <si>
@@ -450,9 +438,6 @@
     <t>zea mays</t>
   </si>
   <si>
-    <t>LLS-32-UK1</t>
-  </si>
-  <si>
     <t>Azolla</t>
   </si>
   <si>
@@ -514,6 +499,21 @@
   </si>
   <si>
     <t>Identification code for the Sample. All Samples begin with Site (LLS = Laguna Loma Suarez). Followed by test tube number</t>
+  </si>
+  <si>
+    <t>cf. Anthurium</t>
+  </si>
+  <si>
+    <t>cf. Foresteronia</t>
+  </si>
+  <si>
+    <t>Hura</t>
+  </si>
+  <si>
+    <t>cf. Hyeronima</t>
+  </si>
+  <si>
+    <t>Ludwigia</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C763E7-5E98-4889-B0F3-E396D1586FA4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -923,95 +923,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1034,31 +1034,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>124961</v>
@@ -1101,10 +1101,10 @@
         <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>124961</v>
@@ -1130,10 +1130,10 @@
         <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>124961</v>
@@ -1159,10 +1159,10 @@
         <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>124961</v>
@@ -1188,10 +1188,10 @@
         <v>8.5</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>124961</v>
@@ -1217,10 +1217,10 @@
         <v>10.5</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>124961</v>
@@ -1246,10 +1246,10 @@
         <v>12.5</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>124961</v>
@@ -1275,10 +1275,10 @@
         <v>14.5</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>124961</v>
@@ -1304,10 +1304,10 @@
         <v>16.5</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>124961</v>
@@ -1333,10 +1333,10 @@
         <v>20.5</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11">
         <v>124961</v>
@@ -1362,10 +1362,10 @@
         <v>22.5</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>124961</v>
@@ -1391,10 +1391,10 @@
         <v>24.5</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>124961</v>
@@ -1420,10 +1420,10 @@
         <v>26.5</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>124961</v>
@@ -1449,10 +1449,10 @@
         <v>28.5</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>124961</v>
@@ -1478,10 +1478,10 @@
         <v>30.5</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>124961</v>
@@ -1507,10 +1507,10 @@
         <v>32.5</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>124961</v>
@@ -1536,10 +1536,10 @@
         <v>34.5</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18">
         <v>124961</v>
@@ -1565,10 +1565,10 @@
         <v>36.5</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F19">
         <v>124961</v>
@@ -1594,10 +1594,10 @@
         <v>38.5</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F20">
         <v>124961</v>
@@ -1623,10 +1623,10 @@
         <v>40.5</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F21">
         <v>124961</v>
@@ -1652,10 +1652,10 @@
         <v>42.5</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22">
         <v>124961</v>
@@ -1681,10 +1681,10 @@
         <v>44.5</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23">
         <v>124961</v>
@@ -1710,10 +1710,10 @@
         <v>46.5</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24">
         <v>124961</v>
@@ -1739,10 +1739,10 @@
         <v>48.5</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>124961</v>
@@ -1768,10 +1768,10 @@
         <v>50.5</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>124961</v>
@@ -1797,10 +1797,10 @@
         <v>52.5</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>124961</v>
@@ -1826,10 +1826,10 @@
         <v>54.5</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>124961</v>
@@ -1855,10 +1855,10 @@
         <v>56.5</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>124961</v>
@@ -1884,10 +1884,10 @@
         <v>58.5</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>124961</v>
@@ -1913,10 +1913,10 @@
         <v>60.5</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F31">
         <v>124961</v>
@@ -1942,10 +1942,10 @@
         <v>62.5</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>124961</v>
@@ -1971,10 +1971,10 @@
         <v>64.5</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>124961</v>
@@ -2000,10 +2000,10 @@
         <v>66.5</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34">
         <v>124961</v>
@@ -2029,10 +2029,10 @@
         <v>68.5</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35">
         <v>124961</v>
@@ -2058,10 +2058,10 @@
         <v>70.5</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36">
         <v>124961</v>
@@ -2087,10 +2087,10 @@
         <v>72.5</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37">
         <v>124961</v>
@@ -2116,10 +2116,10 @@
         <v>74.5</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38">
         <v>124961</v>
@@ -2145,10 +2145,10 @@
         <v>76.5</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39">
         <v>124961</v>
@@ -2174,10 +2174,10 @@
         <v>78.5</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F40">
         <v>124961</v>
@@ -2203,10 +2203,10 @@
         <v>80.5</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F41">
         <v>124961</v>
@@ -2231,9 +2231,9 @@
   <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>33</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>63</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>368</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>99</v>
@@ -11245,14 +11245,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918D3B8D-8B56-47D2-844E-A09E13A02D37}">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11381,7 +11384,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -11634,15 +11637,15 @@
         <v>47</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM(B5:B31)</f>
+        <f>SUM(B5:B30)</f>
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(C5:C31)</f>
+        <f>SUM(C5:C30)</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(D5:D31)</f>
+        <f>SUM(D5:D30)</f>
         <v>6</v>
       </c>
       <c r="E4" s="1">
@@ -11650,55 +11653,55 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:R4" si="0">SUM(F5:F31)</f>
+        <f>SUM(F5:F30)</f>
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(G5:G30)</f>
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(H5:H30)</f>
         <v>13</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(I5:I30)</f>
         <v>7</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:J30)</f>
         <v>24</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(K5:K30)</f>
         <v>7</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(L5:L30)</f>
         <v>4</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(M5:M30)</f>
         <v>31</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(N5:N30)</f>
         <v>24</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O5:O30)</f>
         <v>8</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(P5:P30)</f>
         <v>15</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(Q5:Q30)</f>
         <v>8</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(R5:R30)</f>
         <v>0</v>
       </c>
       <c r="S4" s="1">
@@ -11710,15 +11713,15 @@
         <v>23</v>
       </c>
       <c r="U4" s="1">
-        <f>SUM(U5:U31)</f>
+        <f>SUM(U5:U30)</f>
         <v>15</v>
       </c>
       <c r="V4" s="1">
-        <f>SUM(V5:V31)</f>
+        <f>SUM(V5:V30)</f>
         <v>19</v>
       </c>
       <c r="W4" s="1">
-        <f>SUM(W5:W31)</f>
+        <f>SUM(W5:W30)</f>
         <v>32</v>
       </c>
       <c r="X4" s="1">
@@ -11726,7 +11729,7 @@
         <v>19</v>
       </c>
       <c r="Y4" s="1">
-        <f>SUM(Y5:Y31)</f>
+        <f>SUM(Y5:Y30)</f>
         <v>3</v>
       </c>
       <c r="Z4" s="1">
@@ -11734,11 +11737,11 @@
         <v>48</v>
       </c>
       <c r="AA4" s="1">
-        <f>SUM(AA5:AA31)</f>
+        <f>SUM(AA5:AA30)</f>
         <v>22</v>
       </c>
       <c r="AB4" s="1">
-        <f>SUM(AB5:AB31)</f>
+        <f>SUM(AB5:AB30)</f>
         <v>10</v>
       </c>
       <c r="AC4" s="1">
@@ -11750,7 +11753,7 @@
         <v>4</v>
       </c>
       <c r="AE4" s="1">
-        <f>SUM(AE5:AE31)</f>
+        <f>SUM(AE5:AE30)</f>
         <v>11</v>
       </c>
       <c r="AF4" s="1">
@@ -11758,7 +11761,7 @@
         <v>13</v>
       </c>
       <c r="AG4" s="1">
-        <f>SUM(AG5:AG31)</f>
+        <f>SUM(AG5:AG30)</f>
         <v>14</v>
       </c>
       <c r="AH4" s="1">
@@ -11766,15 +11769,15 @@
         <v>5</v>
       </c>
       <c r="AI4" s="1">
-        <f>SUM(AI5:AI31)</f>
+        <f>SUM(AI5:AI30)</f>
         <v>10</v>
       </c>
       <c r="AJ4" s="1">
-        <f>SUM(AJ5:AJ31)</f>
+        <f>SUM(AJ5:AJ30)</f>
         <v>13</v>
       </c>
       <c r="AK4" s="1">
-        <f>SUM(AK5:AK31)</f>
+        <f>SUM(AK5:AK30)</f>
         <v>14</v>
       </c>
       <c r="AL4" s="1">
@@ -11782,15 +11785,15 @@
         <v>14</v>
       </c>
       <c r="AM4" s="1">
-        <f>SUM(AM5:AM31)</f>
+        <f>SUM(AM5:AM30)</f>
         <v>42</v>
       </c>
       <c r="AN4" s="1">
-        <f>SUM(AN5:AN31)</f>
+        <f>SUM(AN5:AN30)</f>
         <v>48</v>
       </c>
       <c r="AO4" s="1">
-        <f>SUM(AO5:AO31)</f>
+        <f>SUM(AO5:AO30)</f>
         <v>38</v>
       </c>
     </row>
@@ -12546,7 +12549,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13421,7 +13424,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13546,7 +13549,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13671,7 +13674,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -13796,7 +13799,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13921,7 +13924,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14046,7 +14049,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -14171,7 +14174,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -14296,7 +14299,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14421,7 +14424,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -14546,7 +14549,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -14671,7 +14674,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -14796,7 +14799,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -14921,7 +14924,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -15046,507 +15049,507 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B32">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AH32">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -15558,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -15585,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -15612,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -15633,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -15654,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -15666,54 +15669,54 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -15722,16 +15725,16 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -15740,16 +15743,16 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -15758,87 +15761,87 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36">
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -15847,34 +15850,34 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -15889,158 +15892,33 @@
         <v>1</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37">
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AO37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>1</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>2</v>
-      </c>
-      <c r="AO38">
         <v>0</v>
       </c>
     </row>
@@ -16053,7 +15931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D96FD5-46C6-4AFE-B2B1-DE79032A5F64}">
   <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
@@ -16187,7 +16065,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -16437,7 +16315,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -16562,7 +16440,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -16687,7 +16565,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>0</v>
